--- a/web2case_pckg.xlsx
+++ b/web2case_pckg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhivya.TRANSITUSNEXGEN\Documents\GitHub\CTS_ATIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7033EB8F-B3D1-4C35-A84C-7BC7ECADCE33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5700C5-538E-4009-AF3C-03C1F3673E0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="2340" windowWidth="20415" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="1950" windowWidth="20415" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -594,7 +594,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
